--- a/xtt_demo/ZXXT_DEMO_120_R.XLSX
+++ b/xtt_demo/ZXXT_DEMO_120_R.XLSX
@@ -16,6 +16,9 @@
     <sheet name="Class attributes (2)" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="E_">#REF!</definedName>
+    <definedName name="F_">#REF!</definedName>
+    <definedName name="RANGE_SUM1">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Class attributes(1)'!$3:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Class attributes (2)'!$3:$4</definedName>
   </definedNames>
